--- a/pred_ohlcv/54_21/2019-10-26 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 VET ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>2735432.805762221</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>2723225.223862221</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2741520.223862221</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2741520.223862221</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2741520.223862221</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>2743388.101062221</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>2743388.101062221</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2712986.815762221</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2712986.815762221</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2712986.815762221</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2712986.815762221</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2712876.815762221</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>2712876.815762221</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>2451022.560510312</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>3253508.867110312</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>2845205.135210312</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>2912015.135210312</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2957874.735210312</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>2921438.034810312</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2943949.034810312</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>2943949.034810312</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2943949.034810312</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2953949.034810312</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>3034602.034810312</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>3116082.422110312</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>3465082.422110312</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>3454108.248210312</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>3481975.769310312</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>3481975.769310312</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>3962803.560710312</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>7426705.689810312</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>8777667.640210312</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>9379080.574469019</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>9794793.700310312</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>9979588.330810312</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>9979588.330810312</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>9979588.330810312</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>9893670.330810312</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>9912905.330810312</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>9912905.330810312</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>9912905.330810312</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>9912905.330810312</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>9912905.330810312</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>9970108.367410311</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>9938177.898910312</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>10193940.95301031</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>10193940.95301031</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>10208095.95301031</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>10590458.95301031</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>11288490.39811179</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>11288490.39811179</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>11250917.33991179</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>11250760.95441179</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>11250917.33991179</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>11706478.07121179</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>12445130.25601179</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>12675130.25601179</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>12132875.99638768</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>13347460.09828768</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>12702319.67048769</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>12692319.67048769</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>12692319.67048769</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>12684744.91698769</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>12684744.91698769</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>12701974.07698769</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>12761000.40368769</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>12675644.92528769</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>12675654.92528769</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>12831664.92528769</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>12821198.04358769</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>13031418.15848769</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>13031418.15848769</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>12771989.10728769</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>12183840.35948769</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>12183840.35948769</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>12592656.35948769</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>12496379.26838769</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>12496379.26838769</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>12416773.79148769</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>12416773.79148769</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>12416773.79148769</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>12416773.79148769</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>12590123.41148769</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>12590123.41148769</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>12472796.08828769</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>12472796.08828769</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>12495278.10258768</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>11927777.08798769</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>12179150.93298769</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>12143879.93298769</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>12155201.93298769</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>12125520.65968769</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>12125520.65968769</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>12125520.65968769</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>12179780.87008769</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>12179780.87008769</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>12055564.63738769</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>11653958.15928769</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>11653968.15928769</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>11653940.22928769</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>11653950.22928769</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>12003950.22928769</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>12003960.22928769</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>12003960.22928769</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>11951609.15428769</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>11951609.15428769</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>11951619.15428769</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>11939033.47318769</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>11939043.47318769</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>11816513.44428769</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>11816523.44428769</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>11816523.44428769</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>11814139.15428769</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>11732535.62778769</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>11732535.62778769</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>11732535.62778769</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>11732559.37778769</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>11721019.37778769</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>11721041.37778769</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>11884719.49298769</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>11884719.49298769</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 VET ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>2735432.805762221</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>2723225.223862221</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>2741520.223862221</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2741520.223862221</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2741520.223862221</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>2743388.101062221</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>2743388.101062221</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2712986.815762221</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2712986.815762221</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2712986.815762221</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2712986.815762221</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2712876.815762221</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>2712876.815762221</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>2729207.530462221</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>2451022.560510312</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2496237.560510312</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>3253508.867110312</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>2845205.135210312</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>2912015.135210312</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2957874.735210312</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>2921438.034810312</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2943949.034810312</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>2943949.034810312</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2943949.034810312</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2953949.034810312</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>3034602.034810312</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>2970595.422110312</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>3116082.422110312</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>3465082.422110312</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>3454108.248210312</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>3481975.769310312</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>3481975.769310312</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>3962803.560710312</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>7426705.689810312</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>8777667.640210312</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>9379080.574469019</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>9794793.700310312</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>9979588.330810312</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>9979588.330810312</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>9979588.330810312</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>9893670.330810312</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>9912905.330810312</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>9912905.330810312</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>9912905.330810312</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>9912905.330810312</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>9912905.330810312</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>9970108.367410311</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>9938177.898910312</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>10193940.95301031</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>10193940.95301031</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>10208095.95301031</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>10590458.95301031</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>11288490.39811179</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>11288490.39811179</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>11250917.33991179</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>11250760.95441179</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>11250917.33991179</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>11706478.07121179</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>12445130.25601179</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>12675130.25601179</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>13133334.73751179</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>13029511.14731179</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>13040020.45518769</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>12651317.68678769</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>12132875.99638768</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>12132875.99638768</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>11602842.62338769</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>12006539.62338769</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>13347460.09828768</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>12702319.67048769</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>12692319.67048769</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>12692319.67048769</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>12684744.91698769</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>12684744.91698769</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>12701974.07698769</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>12790490.82338769</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>12761000.40368769</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>12675644.92528769</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>12675654.92528769</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>12831664.92528769</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>12821198.04358769</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>13031418.15848769</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>13031418.15848769</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>12771989.10728769</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>12183840.35948769</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>12183840.35948769</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>12592656.35948769</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>12496379.26838769</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>12496379.26838769</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>12416773.79148769</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>12416773.79148769</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>12416773.79148769</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>12416773.79148769</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>12590123.41148769</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>12590123.41148769</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>12472796.08828769</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>12472796.08828769</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>12495278.10258768</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>12179150.93298769</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>12143879.93298769</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>11653958.15928769</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>11653968.15928769</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>11653940.22928769</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>11653950.22928769</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>12003950.22928769</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>12003960.22928769</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>12003960.22928769</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>11951609.15428769</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>11951609.15428769</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>11951619.15428769</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>11939033.47318769</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>11939043.47318769</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>11816513.44428769</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>11816523.44428769</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>11816523.44428769</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>11814139.15428769</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>11732535.62778769</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>11732535.62778769</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>11732535.62778769</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>11732559.37778769</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>11721019.37778769</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>11721041.37778769</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>11884719.49298769</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>11884719.49298769</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
